--- a/public/exports/hebergements.xlsx
+++ b/public/exports/hebergements.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>Nom de l'hébergement</t>
   </si>
@@ -74,6 +74,199 @@
   </si>
   <si>
     <t>Chambre 8 (Capacité: 2 pers., Prix: 23,00 TND, Taille: 25,0 m², Vue: Sur skyline et monuments emblématiques.)</t>
+  </si>
+  <si>
+    <t>Hébergement 1</t>
+  </si>
+  <si>
+    <t>Un hébergement confortable situé à Paris avec des services de qualité.</t>
+  </si>
+  <si>
+    <t>1 Rue Exemple</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>yosra.messai@esen.tn</t>
+  </si>
+  <si>
+    <t>Chambre 100 (Capacité: 2 pers., Prix: 100,00 TND, Taille: 20,0 m², Vue: Vue Jardin)
+Chambre 101 (Capacité: 3 pers., Prix: 150,00 TND, Taille: 30,0 m², Vue: Vue Mer)</t>
+  </si>
+  <si>
+    <t>Hébergement 2</t>
+  </si>
+  <si>
+    <t>Un hébergement confortable situé à Rome avec des services de qualité.</t>
+  </si>
+  <si>
+    <t>2 Rue Exemple</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Italie</t>
+  </si>
+  <si>
+    <t>Chambre 101 (Capacité: 2 pers., Prix: 100,00 TND, Taille: 20,0 m², Vue: Vue Jardin)
+Chambre 102 (Capacité: 3 pers., Prix: 150,00 TND, Taille: 30,0 m², Vue: Vue Mer)</t>
+  </si>
+  <si>
+    <t>Hébergement 3</t>
+  </si>
+  <si>
+    <t>Un hébergement confortable situé à Tokyo avec des services de qualité.</t>
+  </si>
+  <si>
+    <t>3 Rue Exemple</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Japon</t>
+  </si>
+  <si>
+    <t>Chambre 102 (Capacité: 2 pers., Prix: 100,00 TND, Taille: 20,0 m², Vue: Vue Jardin)
+Chambre 103 (Capacité: 3 pers., Prix: 150,00 TND, Taille: 30,0 m², Vue: Vue Mer)</t>
+  </si>
+  <si>
+    <t>Hébergement 4</t>
+  </si>
+  <si>
+    <t>Un hébergement confortable situé à Montréal avec des services de qualité.</t>
+  </si>
+  <si>
+    <t>4 Rue Exemple</t>
+  </si>
+  <si>
+    <t>Montréal</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Chambre 103 (Capacité: 2 pers., Prix: 100,00 TND, Taille: 20,0 m², Vue: Vue Jardin)
+Chambre 104 (Capacité: 3 pers., Prix: 150,00 TND, Taille: 30,0 m², Vue: Vue Mer)</t>
+  </si>
+  <si>
+    <t>Hébergement 5</t>
+  </si>
+  <si>
+    <t>Un hébergement confortable situé à Marrakech avec des services de qualité.</t>
+  </si>
+  <si>
+    <t>5 Rue Exemple</t>
+  </si>
+  <si>
+    <t>Marrakech</t>
+  </si>
+  <si>
+    <t>Maroc</t>
+  </si>
+  <si>
+    <t>Chambre 104 (Capacité: 2 pers., Prix: 100,00 TND, Taille: 20,0 m², Vue: Vue Jardin)
+Chambre 105 (Capacité: 3 pers., Prix: 150,00 TND, Taille: 30,0 m², Vue: Vue Mer)</t>
+  </si>
+  <si>
+    <t>Hébergement 6</t>
+  </si>
+  <si>
+    <t>Un hébergement confortable situé à Rio avec des services de qualité.</t>
+  </si>
+  <si>
+    <t>6 Rue Exemple</t>
+  </si>
+  <si>
+    <t>Rio</t>
+  </si>
+  <si>
+    <t>Brésil</t>
+  </si>
+  <si>
+    <t>Chambre 105 (Capacité: 2 pers., Prix: 100,00 TND, Taille: 20,0 m², Vue: Vue Jardin)
+Chambre 106 (Capacité: 3 pers., Prix: 150,00 TND, Taille: 30,0 m², Vue: Vue Mer)</t>
+  </si>
+  <si>
+    <t>Hébergement 7</t>
+  </si>
+  <si>
+    <t>Un hébergement confortable situé à Berlin avec des services de qualité.</t>
+  </si>
+  <si>
+    <t>7 Rue Exemple</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Allemagne</t>
+  </si>
+  <si>
+    <t>Chambre 106 (Capacité: 2 pers., Prix: 100,00 TND, Taille: 20,0 m², Vue: Vue Jardin)
+Chambre 107 (Capacité: 3 pers., Prix: 150,00 TND, Taille: 30,0 m², Vue: Vue Mer)</t>
+  </si>
+  <si>
+    <t>Hébergement 8</t>
+  </si>
+  <si>
+    <t>Un hébergement confortable situé à Le Caire avec des services de qualité.</t>
+  </si>
+  <si>
+    <t>8 Rue Exemple</t>
+  </si>
+  <si>
+    <t>Le Caire</t>
+  </si>
+  <si>
+    <t>Égypte</t>
+  </si>
+  <si>
+    <t>Chambre 107 (Capacité: 2 pers., Prix: 100,00 TND, Taille: 20,0 m², Vue: Vue Jardin)
+Chambre 108 (Capacité: 3 pers., Prix: 150,00 TND, Taille: 30,0 m², Vue: Vue Mer)</t>
+  </si>
+  <si>
+    <t>Hébergement 9</t>
+  </si>
+  <si>
+    <t>Un hébergement confortable situé à Delhi avec des services de qualité.</t>
+  </si>
+  <si>
+    <t>9 Rue Exemple</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Inde</t>
+  </si>
+  <si>
+    <t>Chambre 108 (Capacité: 2 pers., Prix: 100,00 TND, Taille: 20,0 m², Vue: Vue Jardin)
+Chambre 109 (Capacité: 3 pers., Prix: 150,00 TND, Taille: 30,0 m², Vue: Vue Mer)</t>
+  </si>
+  <si>
+    <t>Hébergement 10</t>
+  </si>
+  <si>
+    <t>Un hébergement confortable situé à Barcelone avec des services de qualité.</t>
+  </si>
+  <si>
+    <t>10 Rue Exemple</t>
+  </si>
+  <si>
+    <t>Barcelone</t>
+  </si>
+  <si>
+    <t>Espagne</t>
+  </si>
+  <si>
+    <t>Chambre 109 (Capacité: 2 pers., Prix: 100,00 TND, Taille: 20,0 m², Vue: Vue Jardin)
+Chambre 1010 (Capacité: 3 pers., Prix: 150,00 TND, Taille: 30,0 m², Vue: Vue Mer)</t>
   </si>
 </sst>
 </file>
@@ -429,7 +622,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:H1"/>
@@ -438,10 +631,10 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="24.708" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="64.841" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="88.407" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="26.993" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="131.968" bestFit="true" customWidth="true" style="0"/>
@@ -525,6 +718,266 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>125.0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>125.0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>125.0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7">
+        <v>125.0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
+        <v>125.0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>125.0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10">
+        <v>125.0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11">
+        <v>125.0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12">
+        <v>125.0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13">
+        <v>125.0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
